--- a/data/4/20230615-a1r-nc-session4-h_transcript.xlsx
+++ b/data/4/20230615-a1r-nc-session4-h_transcript.xlsx
@@ -1,390 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 4 NC/06:15/excel 06:15/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F457FB8-B43D-534D-9C34-9D5B7E2A34AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230615-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:08"</t>
-  </si>
-  <si>
-    <t>I'm dying hour and I still reside in Illinois.</t>
-  </si>
-  <si>
-    <t>"2:13"</t>
-  </si>
-  <si>
-    <t>Hi, I'm Karla. And I'm from Florida and this has been such a pleasure. So thank you.</t>
-  </si>
-  <si>
-    <t>"2:20"</t>
-  </si>
-  <si>
-    <t>Hi, Mark from PA. Yeah, it's been interesting. Really liked it.</t>
-  </si>
-  <si>
-    <t>"2:25"</t>
-  </si>
-  <si>
-    <t>Guess, I'm Kristin I'm from upstate New York and it's been a pleasure meeting, you all.</t>
-  </si>
-  <si>
-    <t>"2:31"</t>
-  </si>
-  <si>
-    <t>My name is Christopher and I'm from Vermont and this has been a pretty good experience.</t>
-  </si>
-  <si>
-    <t>"2:37"</t>
-  </si>
-  <si>
-    <t>Carla from Texas. And yes, I have enjoyed the experience and meeting all of you.</t>
-  </si>
-  <si>
-    <t>"2:44"</t>
-  </si>
-  <si>
-    <t>"3:02"</t>
-  </si>
-  <si>
-    <t>Last speaker. We couldn't hear you just an FYI.</t>
-  </si>
-  <si>
-    <t>"13:50"</t>
-  </si>
-  <si>
-    <t>That, that is a lot to digest. So I'm going to just speak on a few things that I heard that I like, which was closing loopholes for foreign Nationals and making it a national holiday. I think those things will be good and I think the raising the limits on contributions that individuals can make to National political parties from 41,000 higher. I think that's high enough. We don't need all the super wealthy people donating.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Or money.</t>
-  </si>
-  <si>
-    <t>"14:22"</t>
-  </si>
-  <si>
-    <t>I agree. My biggest point is closing the loopholes but I don't think we have to increase anything.</t>
-  </si>
-  <si>
-    <t>"14:29"</t>
-  </si>
-  <si>
-    <t>I agree closing the loopholes to prevent foreign contributions compulsory voting. I don't think it'd be they should have fines if you don't vote. I agree with election day becoming a holiday and 16 year olds voting. I don't know about that.</t>
-  </si>
-  <si>
-    <t>"14:48"</t>
-  </si>
-  <si>
-    <t>Yeah, I'm right there with you. I mean, everything that was said, I totally agree with and but 16 years old is I mean I'm sure we all know plenty who are much older than that, who don't even who vote, and maybe don't even take it seriously and run by emotion. I think it's 16. You're going to have a lot of people, a lot of people running by emotion.</t>
-  </si>
-  <si>
-    <t>"15:10"</t>
-  </si>
-  <si>
-    <t>I'm not so much concerned with the limitations of an individual or political party or state, or even a corporation. Have I just believe that in all instances it should be transparent. My biggest concern is that a Super PAC should not be able to hide this list of donors and be able to hide its finances and operations that would be the most important thing to me on the 16 year old voting. I think it's a decent idea because we would just limit it to School Board elections. Theoretically, that's</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You know, the area that they would be closest to is this student and it's a good exercise in democracy.</t>
-  </si>
-  <si>
-    <t>"15:49"</t>
-  </si>
-  <si>
-    <t>Yeah, the sixteen-year-olds maybe they can arrange some way to that. I don't know. Once they pass their Civics test for instance they can vote on school board. You know. Just their own school, you know, just to increase the young people's getting involved. Definitely close loopholes for foreign control and entities, that just seems like, yeah, let's do that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I don't know enough about reducing the amount that is contributed. It seems like they're all a lot a lot. I would contribute, maybe ten dollars to a candidate that's about it.</t>
-  </si>
-  <si>
-    <t>"16:32"</t>
-  </si>
-  <si>
-    <t>I just wanted to say with the sixteen-year-old Boating that I think it starts to open up the door to pretty soon. They'll be voting for presidential elections and I just think that they are weighed too young to start in too much. They have power.</t>
-  </si>
-  <si>
-    <t>"16:52"</t>
-  </si>
-  <si>
-    <t>You know, in some states, there are high school students that if they are of age in the general election, they are permitted to vote in the primaries. So there are some forms of younger voters that's already in place.</t>
-  </si>
-  <si>
-    <t>"19:27"</t>
-  </si>
-  <si>
-    <t>"19:28"</t>
-  </si>
-  <si>
-    <t>I am supportive of full disclosure at any given point. I wouldn't mind if it was higher than $200 for the individuals but as far as the super Pacs and organizations, I think that there should absolutely be full disclosure not too high of a benchmark before they have to disclose as far as Public Funding and giving people vouchers, I don't support it.</t>
-  </si>
-  <si>
-    <t>"19:56"</t>
-  </si>
-  <si>
-    <t>Yeah, I say exactly the same thing. I don't I don't really see the Nema need and the Democracy vouchers. I do believe though and transparency, so knowing the donors and whatnot, I think that's important. That's useful.</t>
-  </si>
-  <si>
-    <t>"20:14"</t>
-  </si>
-  <si>
-    <t>yeah, I agree in the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> full disclosure and transparency.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Regarding democracy, vouchers. I don't think that's very</t>
-  </si>
-  <si>
-    <t>"20:30"</t>
-  </si>
-  <si>
-    <t>I want to talk on the matching of the elections, you know, to a certain extent. This is already done in presidential campaigns and what has historically happened is candidates, have just opted out and use their own money or used other sources and completely circumvent and matching system. So, I think it's been proven ineffective, and I don't think that such a, you know, method is going to work here, any better unless you basically Force, you know, the candidates too.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Participate in the system and the only other option that could think of that might be effective.</t>
-  </si>
-  <si>
-    <t>"22:20"</t>
-  </si>
-  <si>
-    <t>Doesn't it seem like every two years in the news. Someone's trying to read, do something about the redistricting. Redistricting, I know my I just every two years seems like there's something going on about it. It's always</t>
-  </si>
-  <si>
-    <t>"22:39"</t>
-  </si>
-  <si>
-    <t>I'm not sure if you have an independent group, how do you really know, they're independent, and what happens if people start sending money their way to change their minds?</t>
-  </si>
-  <si>
-    <t>"22:51"</t>
-  </si>
-  <si>
-    <t>I don't necessarily trust the legislature to draw districts. I don't really even trust an independent commission to draw districts. Because how do you balance it and how do you remove the human element? Quite frankly, I prefer to just, you know, feed all the data into a computer or neither, let them draw perfectly Geographic districts or completely random districts. And, you know, but the results, you know, land is it may as it were missing in one of the earlier sessions. So I think maybe maybe IA I created districts, might be the solution.</t>
-  </si>
-  <si>
-    <t>"23:23"</t>
-  </si>
-  <si>
-    <t>Yeah I agree. I don't think that the state should be required to use an independent commission. I mean who's who who were those people? That doesn't, all right?</t>
-  </si>
-  <si>
-    <t>"23:35"</t>
-  </si>
-  <si>
-    <t>I agree with using computer to do we're so Advanced with computers, there's no way that people can do it better than make it computers can do it, and if it's a computer system that does it, them it falls where it is and we live with it. They, it's so appalling that you see the different parties fighting and changing to make sure they're going to win the election. It's ridiculous. It takes away the democracy.</t>
-  </si>
-  <si>
-    <t>"24:03"</t>
-  </si>
-  <si>
-    <t>Yeah. I mean I'm pretty much on board with everybody here. I always can always concerned with the human part of all of this.</t>
-  </si>
-  <si>
-    <t>"24:12"</t>
-  </si>
-  <si>
-    <t>Guys, just remember a human has to program, even the AI. It gets its information from somewhere.</t>
-  </si>
-  <si>
-    <t>"24:23"</t>
-  </si>
-  <si>
-    <t>Hopefully, they can have both sides. Look to make sure and despair as can be but we all know how that goes anyway.</t>
-  </si>
-  <si>
-    <t>"24:30"</t>
-  </si>
-  <si>
-    <t>What happens if they leave at the sane and just has District Rose. There's more polling places. I mean, is that a logical solution?</t>
-  </si>
-  <si>
-    <t>"24:41"</t>
-  </si>
-  <si>
-    <t>I think it would be better if they did it in a fair manner than they are now because currently they've all been gerrymandered one way or another so if they could do it once where it's bear and then leave it the same I think that's a good idea.</t>
-  </si>
-  <si>
-    <t>"26:16"</t>
-  </si>
-  <si>
-    <t>I think we covered this on the last on the first one that came up. But again, the national holiday for elections, I would support as far as giving penalties for people who don't vote, I am so against that and along sixteen-year-olds to Boden, still against,</t>
-  </si>
-  <si>
-    <t>"26:34"</t>
-  </si>
-  <si>
-    <t>And I totally agree with everything that you just said. I do. I like the idea too, though of making it easier for third parties and independent candidates to appear on the ballot.</t>
-  </si>
-  <si>
-    <t>"26:44"</t>
-  </si>
-  <si>
-    <t>Yeah, I was going to say making it easier for third-party candidates. That's been my thought all along. I just always feel like I wish. There was one more person. I could choose from national holiday offer that that I've never had a problem with my voting either in the morning or after work, but just to make sure that people understand how important it is. And again, if it's Justin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The local school board and if they maybe I like the idea of the Civics test, they have to pass. Then they can vote just in the school board.</t>
-  </si>
-  <si>
-    <t>"27:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with every one of those especially with the election day being a holiday but definitely no fines for not voting.</t>
-  </si>
-  <si>
-    <t>"32:13"</t>
-  </si>
-  <si>
-    <t>Yep, good question. I like it.</t>
-  </si>
-  <si>
-    <t>"32:18"</t>
-  </si>
-  <si>
-    <t>I like it too but I do still worried about whoever's determining that Ai and you know, I still think there's a human factor that would play into this.</t>
-  </si>
-  <si>
-    <t>"32:26"</t>
-  </si>
-  <si>
-    <t>I would like them to kick around that question. Both of the technical Merit basis and from the, you know, the philosophical standard of, you know, like you said, you know, who's writing the AI and such, I think it would just make for an interesting conversation</t>
-  </si>
-  <si>
-    <t>"32:43"</t>
-  </si>
-  <si>
-    <t>Who's writing the AI, who's doing it.</t>
-  </si>
-  <si>
-    <t>"32:56"</t>
-  </si>
-  <si>
-    <t>I think they're all great questions. My dog is barking so bad that I'm not going to speak right now though.</t>
-  </si>
-  <si>
-    <t>"33:12"</t>
-  </si>
-  <si>
-    <t>I think they're all great too. I think the last two could be put together into one question.</t>
-  </si>
-  <si>
-    <t>"34:09"</t>
-  </si>
-  <si>
-    <t>I think this one goes along with the one that we just got done discussing and just drawn better districts and trying to make it fair and balanced somehow.</t>
-  </si>
-  <si>
-    <t>"34:40"</t>
-  </si>
-  <si>
-    <t>I would hope if there was a national boating holiday that it would support more people voting, I think it would increase the vote by by quite a bit. I know that I'm always trying to jump through hoops to make sure I get there. I'd rather not have to. I'd rather have a day off, or I could relax and go when I get the polling place. If I go at a certain time, it's busy their lines. They had the whole day at about. It just wouldn't be as is problematic.</t>
-  </si>
-  <si>
-    <t>"35:23"</t>
-  </si>
-  <si>
-    <t>I think we already answered.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -460,47 +119,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -569,14 +228,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1651,709 +1302,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="1" ht="20.25" customHeight="1" s="10">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="10">
+      <c r="A2" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>"2:08"</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>I'm dying hour and I still reside in Illinois.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="10">
+      <c r="A3" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>"2:13"</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Hi, I'm Karla. And I'm from Florida and this has been such a pleasure. So thank you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="10">
+      <c r="A4" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Hi, Mark from PA. Yeah, it's been interesting. Really liked it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="10">
+      <c r="A5" s="3" t="n">
         <v>48638</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>"2:25"</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Guess, I'm Kristin I'm from upstate New York and it's been a pleasure meeting, you all.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="10">
+      <c r="A6" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>"2:31"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="10">
+      <c r="A7" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>"2:31"</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>My name is Christopher and I'm from Vermont and this has been a pretty good experience.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="10">
+      <c r="A8" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>"2:37"</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Carla from Texas. And yes, I have enjoyed the experience and meeting all of you.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="10">
+      <c r="A9" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>"2:44"</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="10">
+      <c r="A10" s="3" t="n">
         <v>48638</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>"3:02"</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Last speaker. We couldn't hear you just an FYI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="10">
+      <c r="A11" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>"13:50"</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>That, that is a lot to digest. So I'm going to just speak on a few things that I heard that I like, which was closing loopholes for foreign Nationals and making it a national holiday. I think those things will be good and I think the raising the limits on contributions that individuals can make to National political parties from 41,000 higher. I think that's high enough. We don't need all the super wealthy people donating.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="10">
+      <c r="A12" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>"13:50"</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Or money.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="10">
+      <c r="A13" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>"14:22"</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>I agree. My biggest point is closing the loopholes but I don't think we have to increase anything.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="10">
+      <c r="A14" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>"14:29"</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>I agree closing the loopholes to prevent foreign contributions compulsory voting. I don't think it'd be they should have fines if you don't vote. I agree with election day becoming a holiday and 16 year olds voting. I don't know about that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="10">
+      <c r="A15" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>"14:48"</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I'm right there with you. I mean, everything that was said, I totally agree with and but 16 years old is I mean I'm sure we all know plenty who are much older than that, who don't even who vote, and maybe don't even take it seriously and run by emotion. I think it's 16. You're going to have a lot of people, a lot of people running by emotion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="10">
+      <c r="A16" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>"15:10"</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>I'm not so much concerned with the limitations of an individual or political party or state, or even a corporation. Have I just believe that in all instances it should be transparent. My biggest concern is that a Super PAC should not be able to hide this list of donors and be able to hide its finances and operations that would be the most important thing to me on the 16 year old voting. I think it's a decent idea because we would just limit it to School Board elections. Theoretically, that's</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="10">
+      <c r="A17" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>"15:10"</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> You know, the area that they would be closest to is this student and it's a good exercise in democracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="10">
+      <c r="A18" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>"15:49"</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, the sixteen-year-olds maybe they can arrange some way to that. I don't know. Once they pass their Civics test for instance they can vote on school board. You know. Just their own school, you know, just to increase the young people's getting involved. Definitely close loopholes for foreign control and entities, that just seems like, yeah, let's do that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="10">
+      <c r="A19" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>"15:49"</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I don't know enough about reducing the amount that is contributed. It seems like they're all a lot a lot. I would contribute, maybe ten dollars to a candidate that's about it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="10">
+      <c r="A20" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>"16:32"</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>I just wanted to say with the sixteen-year-old Boating that I think it starts to open up the door to pretty soon. They'll be voting for presidential elections and I just think that they are weighed too young to start in too much. They have power.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="10">
+      <c r="A21" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>"16:52"</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>You know, in some states, there are high school students that if they are of age in the general election, they are permitted to vote in the primaries. So there are some forms of younger voters that's already in place.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="10">
+      <c r="A22" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>"19:27"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="10">
+      <c r="A23" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>"19:28"</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>I am supportive of full disclosure at any given point. I wouldn't mind if it was higher than $200 for the individuals but as far as the super Pacs and organizations, I think that there should absolutely be full disclosure not too high of a benchmark before they have to disclose as far as Public Funding and giving people vouchers, I don't support it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="10">
+      <c r="A24" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>"19:56"</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I say exactly the same thing. I don't I don't really see the Nema need and the Democracy vouchers. I do believe though and transparency, so knowing the donors and whatnot, I think that's important. That's useful.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="10">
+      <c r="A25" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>yeah, I agree in the</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="10">
+      <c r="A26" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> full disclosure and transparency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="10">
+      <c r="A27" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>"20:14"</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Regarding democracy, vouchers. I don't think that's very</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="10">
+      <c r="A28" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>"20:30"</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>I want to talk on the matching of the elections, you know, to a certain extent. This is already done in presidential campaigns and what has historically happened is candidates, have just opted out and use their own money or used other sources and completely circumvent and matching system. So, I think it's been proven ineffective, and I don't think that such a, you know, method is going to work here, any better unless you basically Force, you know, the candidates too.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="10">
+      <c r="A29" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>"20:30"</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Participate in the system and the only other option that could think of that might be effective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="10">
+      <c r="A30" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>"22:20"</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Doesn't it seem like every two years in the news. Someone's trying to read, do something about the redistricting. Redistricting, I know my I just every two years seems like there's something going on about it. It's always</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="10">
+      <c r="A31" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>"22:39"</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>I'm not sure if you have an independent group, how do you really know, they're independent, and what happens if people start sending money their way to change their minds?</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="10">
+      <c r="A32" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>"22:51"</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>I don't necessarily trust the legislature to draw districts. I don't really even trust an independent commission to draw districts. Because how do you balance it and how do you remove the human element? Quite frankly, I prefer to just, you know, feed all the data into a computer or neither, let them draw perfectly Geographic districts or completely random districts. And, you know, but the results, you know, land is it may as it were missing in one of the earlier sessions. So I think maybe maybe IA I created districts, might be the solution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="10">
+      <c r="A33" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>"23:23"</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Yeah I agree. I don't think that the state should be required to use an independent commission. I mean who's who who were those people? That doesn't, all right?</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="10">
+      <c r="A34" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>"23:35"</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>I agree with using computer to do we're so Advanced with computers, there's no way that people can do it better than make it computers can do it, and if it's a computer system that does it, them it falls where it is and we live with it. They, it's so appalling that you see the different parties fighting and changing to make sure they're going to win the election. It's ridiculous. It takes away the democracy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="10">
+      <c r="A35" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>"24:03"</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Yeah. I mean I'm pretty much on board with everybody here. I always can always concerned with the human part of all of this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="10">
+      <c r="A36" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>"24:12"</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Guys, just remember a human has to program, even the AI. It gets its information from somewhere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="10">
+      <c r="A37" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>"24:23"</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Hopefully, they can have both sides. Look to make sure and despair as can be but we all know how that goes anyway.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="10">
+      <c r="A38" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>"24:30"</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>What happens if they leave at the sane and just has District Rose. There's more polling places. I mean, is that a logical solution?</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1" s="10">
+      <c r="A39" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>"24:41"</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>I think it would be better if they did it in a fair manner than they are now because currently they've all been gerrymandered one way or another so if they could do it once where it's bear and then leave it the same I think that's a good idea.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" s="10">
+      <c r="A40" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>"26:16"</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>I think we covered this on the last on the first one that came up. But again, the national holiday for elections, I would support as far as giving penalties for people who don't vote, I am so against that and along sixteen-year-olds to Boden, still against,</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" s="10">
+      <c r="A41" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>"26:34"</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>And I totally agree with everything that you just said. I do. I like the idea too, though of making it easier for third parties and independent candidates to appear on the ballot.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" s="10">
+      <c r="A42" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>"26:44"</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I was going to say making it easier for third-party candidates. That's been my thought all along. I just always feel like I wish. There was one more person. I could choose from national holiday offer that that I've never had a problem with my voting either in the morning or after work, but just to make sure that people understand how important it is. And again, if it's Justin</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" s="10">
+      <c r="A43" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>"26:44"</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The local school board and if they maybe I like the idea of the Civics test, they have to pass. Then they can vote just in the school board.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" s="10">
+      <c r="A44" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>"27:22"</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with every one of those especially with the election day being a holiday but definitely no fines for not voting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" s="10">
+      <c r="A45" s="3" t="n">
         <v>48843</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>"32:13"</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Yep, good question. I like it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" s="10">
+      <c r="A46" s="3" t="n">
         <v>48600</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>"32:18"</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>I like it too but I do still worried about whoever's determining that Ai and you know, I still think there's a human factor that would play into this.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" s="10">
+      <c r="A47" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>"32:26"</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
+    </row>
+    <row r="48" ht="20" customHeight="1" s="10">
+      <c r="A48" s="3" t="n">
         <v>48686</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>"32:26"</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>I would like them to kick around that question. Both of the technical Merit basis and from the, you know, the philosophical standard of, you know, like you said, you know, who's writing the AI and such, I think it would just make for an interesting conversation</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" s="10">
+      <c r="A49" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>"32:43"</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Who's writing the AI, who's doing it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="20" customHeight="1" s="10">
+      <c r="A50" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>"32:56"</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>I think they're all great questions. My dog is barking so bad that I'm not going to speak right now though.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" s="10">
+      <c r="A51" s="3" t="n">
         <v>9856</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>"33:12"</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>I think they're all great too. I think the last two could be put together into one question.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" s="10">
+      <c r="A52" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>"34:09"</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>I think this one goes along with the one that we just got done discussing and just drawn better districts and trying to make it fair and balanced somehow.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" s="10">
+      <c r="A53" s="3" t="n">
         <v>48689</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>"34:40"</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="inlineStr">
+        <is>
+          <t>I would hope if there was a national boating holiday that it would support more people voting, I think it would increase the vote by by quite a bit. I know that I'm always trying to jump through hoops to make sure I get there. I'd rather not have to. I'd rather have a day off, or I could relax and go when I get the polling place. If I go at a certain time, it's busy their lines. They had the whole day at about. It just wouldn't be as is problematic.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" s="10">
+      <c r="A54" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>"35:23"</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" s="10">
+      <c r="A55" s="3" t="n">
         <v>48639</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>93</v>
+      <c r="B55" s="4" t="inlineStr">
+        <is>
+          <t>"35:23"</t>
+        </is>
+      </c>
+      <c r="C55" s="4" t="inlineStr">
+        <is>
+          <t>I think we already answered.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8382F1B9-F9C9-7E47-B6BA-262869040800}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>